--- a/Excel/Vaffel.xlsx
+++ b/Excel/Vaffel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaja_\Dokumenter\Webtek\Excel_to_text\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\signe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DD0DBC-3A89-45B9-B612-618714E7315C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B652F5-9289-4375-8146-F0F347D1338A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1764" windowWidth="17280" windowHeight="8964" xr2:uid="{4CBF58CD-C947-4DA7-948F-22BD84B3986C}"/>
+    <workbookView xWindow="1416" yWindow="1536" windowWidth="21624" windowHeight="12672" xr2:uid="{4CBF58CD-C947-4DA7-948F-22BD84B3986C}"/>
   </bookViews>
   <sheets>
     <sheet name="Vaffel" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,10 @@
     <t>Beskrivelse</t>
   </si>
   <si>
-    <t>Nystekt vaffel</t>
+    <t>Velg mellom rømme og syltetøy eller brunost. 1,2,3</t>
   </si>
   <si>
-    <t>Velg mellom rømme og syltetøy eller brunost. 1,2,3</t>
+    <t>Nysteikt vaffel</t>
   </si>
 </sst>
 </file>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -405,10 +405,10 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.21875" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
@@ -428,13 +428,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
